--- a/PerformanceData/DR_Kawai_Performance_DesktopPC_GTX1070Ti.xlsx
+++ b/PerformanceData/DR_Kawai_Performance_DesktopPC_GTX1070Ti.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_TISSTC\_Repository\DiminishedReality\GitHub\SIGMR-2019Oct\PerformanceData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="75" windowWidth="20475" windowHeight="12345"/>
   </bookViews>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -671,12 +676,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -707,6 +715,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E632-41C5-B9E4-0B669A706864}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -772,7 +785,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -808,7 +821,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -899,6 +911,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1522-449C-98B4-2FC893027DCF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -938,7 +955,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -982,7 +998,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1006,6 +1021,2124 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>河合のプログラムによる画像修復の処理時間</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+                      <a:t>y = 0.1031x + 1311.7</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+                      <a:t>R² = 0.9904</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ja-JP"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>DR_Kawai_Performance_DesktopPC!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5905</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15137</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24138</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39848</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>DR_Kawai_Performance_DesktopPC!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2765</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5337</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-38CA-4E0E-AD11-8865D01309E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="51349935"/>
+        <c:axId val="93482975"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="51349935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" b="1">
+                    <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                    <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  </a:rPr>
+                  <a:t>除去対象領域のピクセル数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="93482975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="93482975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" b="1">
+                    <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                    <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  </a:rPr>
+                  <a:t>画像修復の処理時間（ミリ秒）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="51349935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+                      <a:t>y = 0.1031x + 1311.7</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+                      <a:t>R² = 0.9904</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ja-JP"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>DR_Kawai_Performance_DesktopPC!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5905</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15137</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24138</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39848</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>DR_Kawai_Performance_DesktopPC!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2765</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5337</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2D4D-4D5F-9114-8FD8CB8DF420}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="51349935"/>
+        <c:axId val="93482975"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="51349935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" b="1">
+                    <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                    <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  </a:rPr>
+                  <a:t>除去対象領域のピクセル数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="93482975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="93482975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" b="1">
+                    <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                    <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  </a:rPr>
+                  <a:t>画像修復の処理時間（ミリ秒）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="51349935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1023,7 +3156,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1055,7 +3194,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="グラフ 4"/>
+        <xdr:cNvPr id="5" name="グラフ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1072,11 +3217,85 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>657224</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>128586</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ABB9E11-B051-4B08-9A53-F9E241F54AB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>51954</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>138546</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>420832</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>162359</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="グラフ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C0FA451-41B9-4AFE-87CA-99C7A3A919D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1118,7 +3337,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1151,9 +3370,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1186,6 +3422,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">

--- a/PerformanceData/DR_Kawai_Performance_DesktopPC_GTX1070Ti.xlsx
+++ b/PerformanceData/DR_Kawai_Performance_DesktopPC_GTX1070Ti.xlsx
@@ -1584,7 +1584,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="diamond"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -1604,7 +1604,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
+                <a:prstDash val="sysDash"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1618,7 +1618,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                         <a:solidFill>
                           <a:schemeClr val="tx1">
                             <a:lumMod val="65000"/>
@@ -1631,17 +1631,17 @@
                       </a:defRPr>
                     </a:pPr>
                     <a:r>
-                      <a:rPr lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+                      <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
                       <a:t>y = 0.1031x + 1311.7</a:t>
                     </a:r>
                     <a:br>
-                      <a:rPr lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+                      <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
                     </a:br>
                     <a:r>
-                      <a:rPr lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+                      <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
                       <a:t>R² = 0.9904</a:t>
                     </a:r>
-                    <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000"/>
+                    <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1658,7 +1658,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -1763,7 +1763,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1776,7 +1776,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US" b="1">
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="1">
                     <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                     <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                   </a:rPr>
@@ -1798,7 +1798,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1836,7 +1836,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1883,7 +1883,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1896,7 +1896,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US" b="1">
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="1">
                     <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                     <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                   </a:rPr>
@@ -1918,7 +1918,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1956,7 +1956,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3255,16 +3255,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>51954</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>533809</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>138546</xdr:rowOff>
+      <xdr:rowOff>116134</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>420832</xdr:colOff>
+      <xdr:colOff>219128</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>162359</xdr:rowOff>
+      <xdr:rowOff>156882</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3617,8 +3617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
